--- a/設計書/01_基本設計（外部設計）/09_インフラ設計/サーバ一覧.xlsx
+++ b/設計書/01_基本設計（外部設計）/09_インフラ設計/サーバ一覧.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="44">
   <si>
     <t>プロジェクト</t>
   </si>
@@ -248,13 +248,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>本番</t>
-    <rPh sb="0" eb="2">
-      <t>ホンバン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>物理</t>
     <rPh sb="0" eb="2">
       <t>ブツリ</t>
@@ -274,25 +267,7 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>AP</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>DB</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>？？？？</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Java 8.X
-Nginx 1.X
-Jetty 9.X</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>MySQL 5.X</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -300,24 +275,29 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>開発</t>
+    <t>Java 8.X
+Nginx 1.X
+MySQL 5.X</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>本番/検証</t>
     <rPh sb="0" eb="2">
-      <t>カイハツ</t>
+      <t>ホンバン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケンショウ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>物理</t>
+    <t>検証サーバも兼任</t>
     <rPh sb="0" eb="2">
-      <t>ブツリ</t>
+      <t>ケンショウ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Java 8.X
-Nginx 1.X
-Jetty 9.X
-MySQL 5.X</t>
+    <rPh sb="6" eb="8">
+      <t>ケンニン</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -3695,7 +3675,7 @@
       <c r="AG4" s="31"/>
       <c r="AH4" s="31"/>
       <c r="AI4" s="30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AJ4" s="31"/>
       <c r="AK4" s="31"/>
@@ -3842,17 +3822,17 @@
       <c r="E7" s="118"/>
       <c r="F7" s="119"/>
       <c r="G7" s="117" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H7" s="118"/>
       <c r="I7" s="119"/>
       <c r="J7" s="117" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K7" s="118"/>
       <c r="L7" s="119"/>
       <c r="M7" s="117" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="N7" s="118"/>
       <c r="O7" s="118"/>
@@ -3861,7 +3841,7 @@
       <c r="R7" s="118"/>
       <c r="S7" s="119"/>
       <c r="T7" s="117" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="U7" s="118"/>
       <c r="V7" s="118"/>
@@ -3869,20 +3849,20 @@
       <c r="X7" s="118"/>
       <c r="Y7" s="119"/>
       <c r="Z7" s="117" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AA7" s="118"/>
       <c r="AB7" s="118"/>
       <c r="AC7" s="119"/>
       <c r="AD7" s="117" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AE7" s="118"/>
       <c r="AF7" s="118"/>
       <c r="AG7" s="118"/>
       <c r="AH7" s="119"/>
       <c r="AI7" s="121" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AJ7" s="118"/>
       <c r="AK7" s="118"/>
@@ -3893,7 +3873,9 @@
       <c r="AP7" s="118"/>
       <c r="AQ7" s="118"/>
       <c r="AR7" s="119"/>
-      <c r="AS7" s="117"/>
+      <c r="AS7" s="117" t="s">
+        <v>43</v>
+      </c>
       <c r="AT7" s="118"/>
       <c r="AU7" s="118"/>
       <c r="AV7" s="118"/>
@@ -3902,61 +3884,45 @@
       <c r="AY7" s="118"/>
       <c r="AZ7" s="120"/>
     </row>
-    <row r="8" spans="1:54" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="37">
-        <f ca="1">IF(B8="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
-        <v>2</v>
-      </c>
-      <c r="B8" s="117" t="s">
-        <v>41</v>
-      </c>
+    <row r="8" spans="1:54" x14ac:dyDescent="0.15">
+      <c r="A8" s="37" t="str">
+        <f>IF(B8="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
+        <v/>
+      </c>
+      <c r="B8" s="117"/>
       <c r="C8" s="118"/>
       <c r="D8" s="118"/>
       <c r="E8" s="118"/>
       <c r="F8" s="119"/>
-      <c r="G8" s="117" t="s">
-        <v>35</v>
-      </c>
+      <c r="G8" s="117"/>
       <c r="H8" s="118"/>
       <c r="I8" s="119"/>
-      <c r="J8" s="117" t="s">
-        <v>36</v>
-      </c>
+      <c r="J8" s="117"/>
       <c r="K8" s="118"/>
       <c r="L8" s="119"/>
-      <c r="M8" s="117" t="s">
-        <v>42</v>
-      </c>
+      <c r="M8" s="117"/>
       <c r="N8" s="118"/>
       <c r="O8" s="118"/>
       <c r="P8" s="118"/>
       <c r="Q8" s="118"/>
       <c r="R8" s="118"/>
       <c r="S8" s="119"/>
-      <c r="T8" s="117" t="s">
-        <v>37</v>
-      </c>
+      <c r="T8" s="117"/>
       <c r="U8" s="118"/>
       <c r="V8" s="118"/>
       <c r="W8" s="118"/>
       <c r="X8" s="118"/>
       <c r="Y8" s="119"/>
-      <c r="Z8" s="117" t="s">
-        <v>37</v>
-      </c>
+      <c r="Z8" s="117"/>
       <c r="AA8" s="118"/>
       <c r="AB8" s="118"/>
       <c r="AC8" s="119"/>
-      <c r="AD8" s="117" t="s">
-        <v>39</v>
-      </c>
+      <c r="AD8" s="117"/>
       <c r="AE8" s="118"/>
       <c r="AF8" s="118"/>
       <c r="AG8" s="118"/>
       <c r="AH8" s="119"/>
-      <c r="AI8" s="121" t="s">
-        <v>44</v>
-      </c>
+      <c r="AI8" s="121"/>
       <c r="AJ8" s="118"/>
       <c r="AK8" s="118"/>
       <c r="AL8" s="118"/>
@@ -3975,61 +3941,45 @@
       <c r="AY8" s="118"/>
       <c r="AZ8" s="120"/>
     </row>
-    <row r="9" spans="1:54" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="37">
-        <f ca="1">IF(B9="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
-        <v>3</v>
-      </c>
-      <c r="B9" s="117" t="s">
-        <v>45</v>
-      </c>
+    <row r="9" spans="1:54" x14ac:dyDescent="0.15">
+      <c r="A9" s="37" t="str">
+        <f>IF(B9="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
+        <v/>
+      </c>
+      <c r="B9" s="117"/>
       <c r="C9" s="118"/>
       <c r="D9" s="118"/>
       <c r="E9" s="118"/>
       <c r="F9" s="119"/>
-      <c r="G9" s="117" t="s">
-        <v>46</v>
-      </c>
+      <c r="G9" s="117"/>
       <c r="H9" s="118"/>
       <c r="I9" s="119"/>
-      <c r="J9" s="117" t="s">
-        <v>47</v>
-      </c>
+      <c r="J9" s="117"/>
       <c r="K9" s="118"/>
       <c r="L9" s="119"/>
-      <c r="M9" s="117" t="s">
-        <v>42</v>
-      </c>
+      <c r="M9" s="117"/>
       <c r="N9" s="118"/>
       <c r="O9" s="118"/>
       <c r="P9" s="118"/>
       <c r="Q9" s="118"/>
       <c r="R9" s="118"/>
       <c r="S9" s="119"/>
-      <c r="T9" s="117" t="s">
-        <v>37</v>
-      </c>
+      <c r="T9" s="117"/>
       <c r="U9" s="118"/>
       <c r="V9" s="118"/>
       <c r="W9" s="118"/>
       <c r="X9" s="118"/>
       <c r="Y9" s="119"/>
-      <c r="Z9" s="117" t="s">
-        <v>37</v>
-      </c>
+      <c r="Z9" s="117"/>
       <c r="AA9" s="118"/>
       <c r="AB9" s="118"/>
       <c r="AC9" s="119"/>
-      <c r="AD9" s="117" t="s">
-        <v>39</v>
-      </c>
+      <c r="AD9" s="117"/>
       <c r="AE9" s="118"/>
       <c r="AF9" s="118"/>
       <c r="AG9" s="118"/>
       <c r="AH9" s="119"/>
-      <c r="AI9" s="121" t="s">
-        <v>48</v>
-      </c>
+      <c r="AI9" s="121"/>
       <c r="AJ9" s="118"/>
       <c r="AK9" s="118"/>
       <c r="AL9" s="118"/>
